--- a/results/FrequencyTables/25752527_gVif-T1.xlsx
+++ b/results/FrequencyTables/25752527_gVif-T1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00258576107567661</v>
       </c>
       <c r="C2">
-        <v>0.99</v>
+        <v>0.997414238924323</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.991897948629547</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.990863644199276</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0691260127564213</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.951732459920703</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.030511980692984</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.993449405274953</v>
       </c>
       <c r="J2">
-        <v>0.33</v>
+        <v>0.16031718669195</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000517152215135321</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.000861920358558869</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.998965695569729</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0210308567488364</v>
       </c>
       <c r="Q2">
-        <v>0.02</v>
+        <v>0.00379244957765902</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00120668850198242</v>
       </c>
       <c r="S2">
-        <v>0.05</v>
+        <v>0.0375797276331667</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.023616617824513</v>
       </c>
       <c r="W2">
-        <v>0.06</v>
+        <v>0.00896397172901224</v>
       </c>
       <c r="X2">
-        <v>0.99</v>
+        <v>0.994311325633511</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -545,64 +545,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00655059472504741</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00120668850198242</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0032752973625237</v>
       </c>
       <c r="J3">
-        <v>0.67</v>
+        <v>0.760213756248923</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000861920358558869</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00120668850198242</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00120668850198242</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.999310463713153</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0543009825892088</v>
       </c>
       <c r="Q3">
-        <v>0.35</v>
+        <v>0.0349939665574901</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000344768143423548</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="V3">
-        <v>0.28</v>
+        <v>0.116876400620583</v>
       </c>
       <c r="W3">
-        <v>0.93</v>
+        <v>0.990174107912429</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.996724702637476</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.00241337700396483</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00758489915531805</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00103430443027064</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.929150146526461</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0456817790036201</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.968970867091881</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00275814514738838</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00534390622306499</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.997759007067747</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.997586622996035</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000861920358558869</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0239613859679366</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="S4">
-        <v>0.95</v>
+        <v>0.959834511291157</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.999827615928288</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.999482847784865</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0172384071711774</v>
       </c>
       <c r="W4">
-        <v>0.01</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="X4">
-        <v>0.01</v>
+        <v>0.00465436993621789</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -690,55 +690,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00120668850198242</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000344768143423548</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000172384071711774</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0668850198241683</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.998793311498018</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000517152215135321</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000517152215135321</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.896914325116359</v>
       </c>
       <c r="Q5">
-        <v>0.63</v>
+        <v>0.959662127219445</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.99810377521117</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000517152215135321</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.72</v>
+        <v>0.83968281330805</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000344768143423548</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000689536286847095</v>
       </c>
     </row>
   </sheetData>
